--- a/results/mp/tinybert/corona/confidence/42/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,13 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>low</t>
   </si>
   <si>
     <t>no</t>
@@ -64,6 +67,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -73,73 +79,91 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>safety</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -497,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7272727272727273</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3476394849785407</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2325581395348837</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>406</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.162962962962963</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,47 +832,71 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>330</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8235294117647058</v>
+        <v>0.7734375</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -860,21 +908,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -886,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -912,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -938,21 +986,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -964,21 +1012,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7125</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -990,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7413793103448276</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1016,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7368421052631579</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1042,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.726027397260274</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1068,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1094,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1120,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1146,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6551724137931034</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1172,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1198,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5821596244131455</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L23">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="M23">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1224,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>89</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5666666666666667</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1250,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1276,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L26">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1302,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5116279069767442</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1328,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>63</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4571428571428571</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1354,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4565217391304348</v>
+        <v>0.03583333333333334</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1380,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.03902439024390244</v>
+        <v>0.02774694783573807</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1406,7 +1454,189 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>394</v>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31">
+        <v>0.01871958068139274</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>52</v>
+      </c>
+      <c r="N31">
+        <v>0.96</v>
+      </c>
+      <c r="O31">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.01351904956984842</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>0.89</v>
+      </c>
+      <c r="O32">
+        <v>0.11</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.01295696436834799</v>
+      </c>
+      <c r="L33">
+        <v>56</v>
+      </c>
+      <c r="M33">
+        <v>62</v>
+      </c>
+      <c r="N33">
+        <v>0.9</v>
+      </c>
+      <c r="O33">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.01260504201680672</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>0.96</v>
+      </c>
+      <c r="O34">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.01141369643572287</v>
+      </c>
+      <c r="L35">
+        <v>57</v>
+      </c>
+      <c r="M35">
+        <v>59</v>
+      </c>
+      <c r="N35">
+        <v>0.97</v>
+      </c>
+      <c r="O35">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.009029345372460496</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>0.82</v>
+      </c>
+      <c r="O36">
+        <v>0.18</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.008137957760124007</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>46</v>
+      </c>
+      <c r="N37">
+        <v>0.91</v>
+      </c>
+      <c r="O37">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>5119</v>
       </c>
     </row>
   </sheetData>
